--- a/resourcelist.xlsx
+++ b/resourcelist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lileshan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lileshan/workspace/EspressoResource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD7B975-9DD6-2F4E-85AB-241978A16351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCAD5A8-B6D8-854F-98EF-74383DA87678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{109A3F2F-C150-214F-9E0B-A7069201016B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{109A3F2F-C150-214F-9E0B-A7069201016B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -579,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>11041</v>
+        <v>10041</v>
       </c>
       <c r="C3" s="1">
         <v>4929</v>
